--- a/figures/fig_plans.xlsx
+++ b/figures/fig_plans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226E0EA-EA37-4E3D-968C-31C88C68EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1905D136-B62E-47B9-9A6F-DF5330D86EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>fig 1</t>
   </si>
@@ -97,9 +97,6 @@
     <t>map of lc 1 and 3, highting hillslopes</t>
   </si>
   <si>
-    <t>hs slope and curvature changes with bed thickness and exposure</t>
-  </si>
-  <si>
     <t>channel slope, and sed dist, vs relevant HS charictoristics</t>
   </si>
   <si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t>length, curve,  and slope of steep vs sed dist in channel</t>
+  </si>
+  <si>
+    <t>slope va bed thickness</t>
+  </si>
+  <si>
+    <t>curve vs distance from channel</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -525,16 +528,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -557,17 +557,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">

--- a/figures/fig_plans.xlsx
+++ b/figures/fig_plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1905D136-B62E-47B9-9A6F-DF5330D86EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA11C7E1-92DF-45CC-8ED4-0651623F9601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/figures/fig_plans.xlsx
+++ b/figures/fig_plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA11C7E1-92DF-45CC-8ED4-0651623F9601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B73D74-337B-4D87-95C5-165AABC00297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>fig 1</t>
   </si>
@@ -97,25 +97,31 @@
     <t>map of lc 1 and 3, highting hillslopes</t>
   </si>
   <si>
-    <t>channel slope, and sed dist, vs relevant HS charictoristics</t>
-  </si>
-  <si>
-    <t>slope and curve affect distace from channel and ridgeline, inflection pt, and elevation of inflection</t>
-  </si>
-  <si>
-    <t>bed thicknesses affect distace from channel and ridgeline, inflection pt, and elevation of inflection</t>
-  </si>
-  <si>
-    <t>proximity to steep outcrop affect slope and curve</t>
-  </si>
-  <si>
-    <t>length, curve,  and slope of steep vs sed dist in channel</t>
-  </si>
-  <si>
-    <t>slope va bed thickness</t>
-  </si>
-  <si>
-    <t>curve vs distance from channel</t>
+    <t>bedrock exposure vs slope (check vs curve and distance from channel)</t>
+  </si>
+  <si>
+    <t>curve vs distance from channel plus map of transects</t>
+  </si>
+  <si>
+    <t>distribution of bed thcknesses down channel, plus map of transects</t>
+  </si>
+  <si>
+    <t>slope vs bed thickness</t>
+  </si>
+  <si>
+    <t>bed thickness distributions vs sed size, channel morph</t>
+  </si>
+  <si>
+    <t>hillslope morph (HS length, slope, curve) vs sed size, channel morph</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>draft is finished</t>
+  </si>
+  <si>
+    <t>are a or b diameters more affected by bed thickness?</t>
   </si>
 </sst>
 </file>
@@ -483,28 +489,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59266CAB-51C5-4911-836C-5738DAE33FA7}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,94 +523,100 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>

--- a/figures/fig_plans.xlsx
+++ b/figures/fig_plans.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SamAnderson\Documents\GitHub\hillslope-project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B73D74-337B-4D87-95C5-165AABC00297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD6091-6C94-475C-A7DD-4C58CB5182AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>fig 1</t>
   </si>
@@ -122,6 +120,9 @@
   </si>
   <si>
     <t>are a or b diameters more affected by bed thickness?</t>
+  </si>
+  <si>
+    <t>frame figs in terms of up to downstream</t>
   </si>
 </sst>
 </file>
@@ -171,10 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59266CAB-51C5-4911-836C-5738DAE33FA7}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I26" sqref="H26:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,14 +502,15 @@
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -621,9 +622,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/figures/fig_plans.xlsx
+++ b/figures/fig_plans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SamAnderson\Documents\GitHub\hillslope-project\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD6091-6C94-475C-A7DD-4C58CB5182AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB197EC6-678B-4431-888C-4BCC99E0CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>curve vs distance from channel plus map of transects</t>
   </si>
   <si>
-    <t>distribution of bed thcknesses down channel, plus map of transects</t>
-  </si>
-  <si>
     <t>slope vs bed thickness</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>frame figs in terms of up to downstream</t>
+  </si>
+  <si>
+    <t>distribution of bed thcknesses down channel, plus map of transects, profiles</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="H26:I28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +511,7 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -557,10 +557,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/figures/fig_plans.xlsx
+++ b/figures/fig_plans.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB197EC6-678B-4431-888C-4BCC99E0CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB7D673-F0E7-4E1E-9571-11EF2A47F713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -492,13 +495,13 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/figures/fig_plans.xlsx
+++ b/figures/fig_plans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB7D673-F0E7-4E1E-9571-11EF2A47F713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1688B6-4B14-43A5-93CD-EB38C2B539E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>fig 1</t>
   </si>
@@ -74,18 +74,6 @@
     <t>fig 12</t>
   </si>
   <si>
-    <t>fig 13</t>
-  </si>
-  <si>
-    <t>fig 14</t>
-  </si>
-  <si>
-    <t>fig 15</t>
-  </si>
-  <si>
-    <t>fig 16</t>
-  </si>
-  <si>
     <t xml:space="preserve">what it is </t>
   </si>
   <si>
@@ -101,12 +89,6 @@
     <t>bedrock exposure vs slope (check vs curve and distance from channel)</t>
   </si>
   <si>
-    <t>curve vs distance from channel plus map of transects</t>
-  </si>
-  <si>
-    <t>slope vs bed thickness</t>
-  </si>
-  <si>
     <t>bed thickness distributions vs sed size, channel morph</t>
   </si>
   <si>
@@ -116,9 +98,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>draft is finished</t>
-  </si>
-  <si>
     <t>are a or b diameters more affected by bed thickness?</t>
   </si>
   <si>
@@ -126,6 +105,57 @@
   </si>
   <si>
     <t>distribution of bed thcknesses down channel, plus map of transects, profiles</t>
+  </si>
+  <si>
+    <t>Some intro figs</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>photo sieve fig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show sed measurements </t>
+  </si>
+  <si>
+    <t>fig showing sophia method</t>
+  </si>
+  <si>
+    <t>HS schematic fig</t>
+  </si>
+  <si>
+    <t>map 2 with ksn, slope histograms, transects, dist of bed thicknesses and grain size dist in channels</t>
+  </si>
+  <si>
+    <t>local slope vs bed thickness</t>
+  </si>
+  <si>
+    <t>total slope vs bed thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curve vs bed thckness </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>see if distance up channel has an effect</t>
+  </si>
+  <si>
+    <t>sediment size vs ksn</t>
+  </si>
+  <si>
+    <t>figs of bedthickness efect on grain size and steepness</t>
+  </si>
+  <si>
+    <t>SEE DISCUSSION IDEAS</t>
+  </si>
+  <si>
+    <t>SOIL PIT STUFF</t>
+  </si>
+  <si>
+    <t>distance up channel vs curvature</t>
   </si>
 </sst>
 </file>
@@ -492,147 +522,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59266CAB-51C5-4911-836C-5738DAE33FA7}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="64.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/figures/fig_plans.xlsx
+++ b/figures/fig_plans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1688B6-4B14-43A5-93CD-EB38C2B539E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AAD966-D860-4B1B-A6D1-94C86D467E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>fig 1</t>
   </si>
   <si>
-    <t>fig 2</t>
-  </si>
-  <si>
     <t>fig 3</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>introduce area</t>
   </si>
   <si>
-    <t>map of lc 1 and 3, highting hillslopes</t>
-  </si>
-  <si>
     <t>bedrock exposure vs slope (check vs curve and distance from channel)</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>photo sieve fig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show sed measurements </t>
-  </si>
-  <si>
     <t>fig showing sophia method</t>
   </si>
   <si>
@@ -156,13 +144,28 @@
   </si>
   <si>
     <t>distance up channel vs curvature</t>
+  </si>
+  <si>
+    <t>no control / not related… maybe shows only bed thickness controls curve</t>
+  </si>
+  <si>
+    <t>did not work</t>
+  </si>
+  <si>
+    <t>no control / not related… but there is no 40m bedrock exposure so maybe ask sophia to do that?</t>
+  </si>
+  <si>
+    <t>map of lc 1 and 3, study locations</t>
+  </si>
+  <si>
+    <t>model after the one I did for other paper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +183,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,9 +223,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59266CAB-51C5-4911-836C-5738DAE33FA7}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,24 +559,24 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -564,10 +584,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -575,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -586,7 +609,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,10 +620,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -605,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -613,6 +636,9 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -621,10 +647,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -632,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -643,21 +669,21 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -665,53 +691,59 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
